--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59677.73049126889</v>
+        <v>11764472.71787694</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59677.73049126889</v>
+        <v>11764472.71787694</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>215568.3805451711</v>
+        <v>24501999.42283508</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215568.3805451711</v>
+        <v>24501999.42283508</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1262643517.470096</v>
+        <v>26589618.34013158</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16023.69773646451</v>
+        <v>719069.0775655576</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30314.8706394787</v>
+        <v>1183523.571427091</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44749.57758981974</v>
+        <v>1647978.065288626</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58792.35582275563</v>
+        <v>2112299.622571326</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72835.50524043922</v>
+        <v>2576660.525437283</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>86924.98197801449</v>
+        <v>3075552.632336744</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101015.5962138335</v>
+        <v>3826870.185038342</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114632.2468132889</v>
+        <v>4483868.974103577</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128292.6659392829</v>
+        <v>4942978.886769312</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142102.9168614391</v>
+        <v>5474906.44593035</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155928.5701600469</v>
+        <v>6006101.26853158</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>169924.2518081396</v>
+        <v>6536919.841434806</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183919.9334562323</v>
+        <v>7067738.414338032</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>198209.1583400468</v>
+        <v>7476492.184200725</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>212245.1288360273</v>
+        <v>7646897.334175487</v>
       </c>
     </row>
   </sheetData>
